--- a/public/import/weekly_template weekly.xlsx
+++ b/public/import/weekly_template weekly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -55,7 +55,10 @@
     <t>Check ATK gudang</t>
   </si>
   <si>
-    <t>36</t>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,11 +424,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>2022</v>
+      <c r="A2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -435,11 +438,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2022</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -449,11 +452,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2022</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -463,11 +466,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2022</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -477,11 +480,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2022</v>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -491,11 +494,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2022</v>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -505,11 +508,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2022</v>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -519,11 +522,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2022</v>
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
